--- a/class_diagram/after/model/form/interviewer/面談予約システム_クラス図 (model.form.interviewer).xlsx
+++ b/class_diagram/after/model/form/interviewer/面談予約システム_クラス図 (model.form.interviewer).xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\java_ys_sys\meeting_reservation_system\class_diagram\after\model\form\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\model\form\interviewer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14014EF8-6204-42FC-AF9C-B5008533ABAD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B62436-5C4F-4A98-AB5F-2687CA8A0154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LoginForm" sheetId="1" r:id="rId1"/>
+    <sheet name="UpdateRequestForm" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -163,7 +163,7 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>228600</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -179,7 +179,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7077075" y="2733675"/>
-          <a:ext cx="4800600" cy="1800225"/>
+          <a:ext cx="4800600" cy="2019300"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -217,7 +217,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>LoginForm</a:t>
+            <a:t>UpdateRequestForm</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
             <a:solidFill>
@@ -391,8 +391,23 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>email : String</a:t>
+            <a:t>name</a:t>
           </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> : String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -558,7 +573,341 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>pass : String</a:t>
+            <a:t>kana : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFB506E-80A7-470A-BA50-6540C59FE557}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10353675" y="3686175"/>
+          <a:ext cx="1362075" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>email : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B25AC83A-CB2F-4D22-9BB4-7EDB1B5366CA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7210425" y="4229100"/>
+          <a:ext cx="1981200" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>requestText : String</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -887,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/class_diagram/after/model/form/interviewer/面談予約システム_クラス図 (model.form.interviewer).xlsx
+++ b/class_diagram/after/model/form/interviewer/面談予約システム_クラス図 (model.form.interviewer).xlsx
@@ -1,33 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20357"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29704"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\model\form\interviewer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\javamonsys\meeting_reservation_system\class_diagram\after\model\form\user\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B62436-5C4F-4A98-AB5F-2687CA8A0154}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{98086433-EFF3-4A6C-92E8-F1BCB67AD385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9894A660-87F4-4EEC-AFD7-1E20858C529C}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="UpdateRequestForm" sheetId="1" r:id="rId1"/>
+    <sheet name="SearchForm" sheetId="8" r:id="rId1"/>
+    <sheet name="RepassEmailForm" sheetId="4" r:id="rId2"/>
+    <sheet name="NewPassForm" sheetId="3" r:id="rId3"/>
+    <sheet name="SignupForm" sheetId="2" r:id="rId4"/>
+    <sheet name="InterviewerSetForm" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="5">
   <si>
-    <t xml:space="preserve"> アクター別パッケージ名</t>
+    <t>getter/setterは、 @Data で自動生成</t>
+    <rPh sb="23" eb="27">
+      <t>ジドウセイセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>*lombook使用</t>
@@ -45,18 +64,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>getter/setterは、 @Data で自動生成</t>
-    <rPh sb="23" eb="27">
-      <t>ジドウセイセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
+    <t xml:space="preserve"> アクター別パッケージ名</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,8 +150,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFEBC7"/>
       <color rgb="FF91A5C4"/>
-      <color rgb="FFFFEBC7"/>
     </mruColors>
   </colors>
   <extLst>
@@ -155,22 +170,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="四角形: 角を丸くする 9">
+        <xdr:cNvPr id="2" name="角丸四角形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D0B8E4D-FFA0-4C13-AC21-A97F3E86409B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{695A87E5-73B2-4031-BCCB-9B9630AD594C}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2AA2002C-C11A-42A1-80CE-1742E3856ED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -178,8 +196,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7077075" y="2733675"/>
-          <a:ext cx="4800600" cy="2019300"/>
+          <a:off x="7296150" y="2124075"/>
+          <a:ext cx="5486400" cy="5934075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -191,7 +209,7 @@
       <xdr:style>
         <a:lnRef idx="2">
           <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
+            <a:shade val="15000"/>
           </a:schemeClr>
         </a:lnRef>
         <a:fillRef idx="1">
@@ -205,27 +223,24 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="3600">
-              <a:solidFill>
-                <a:schemeClr val="bg2">
-                  <a:lumMod val="50000"/>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>UpdateRequestForm</a:t>
+            <a:t>SearchForm</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="3600">
-            <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -234,25 +249,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="四角形 7">
+        <xdr:cNvPr id="4" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9CB05A9-72F4-4FC7-987D-7049D996FD44}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D85C89AB-EBB5-4888-B045-F5DEBEDBE7CE}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{695A87E5-73B2-4031-BCCB-9B9630AD594C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -260,8 +275,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7200900" y="3686175"/>
-          <a:ext cx="1457325" cy="342900"/>
+          <a:off x="7524749" y="3209925"/>
+          <a:ext cx="1952625" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -391,7 +406,1689 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>name</a:t>
+            <a:t>name : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D037831B-1D9C-4926-925D-A8790E98BFEF}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D85C89AB-EBB5-4888-B045-F5DEBEDBE7CE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9591675" y="3200400"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>date : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{629A2561-D418-4C53-A248-40EFCBD5725B}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D037831B-1D9C-4926-925D-A8790E98BFEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7505700" y="3810000"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>time : int</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A78EEA-61F3-40FB-B943-7EF0FEF814DC}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2AA2002C-C11A-42A1-80CE-1742E3856ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="1790700"/>
+          <a:ext cx="4705350" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>RepassEmailForm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CB053A-1F74-4297-BD26-E2367B1B525D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A3A78EEA-61F3-40FB-B943-7EF0FEF814DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496174" y="3114675"/>
+          <a:ext cx="1952625" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>email : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68833879-CE1D-4807-2B63-51303F53F28D}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2AA2002C-C11A-42A1-80CE-1742E3856ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6829425" y="1790700"/>
+          <a:ext cx="4705350" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>NewPassForm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AA2002C-C11A-42A1-80CE-1742E3856ED3}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{68833879-CE1D-4807-2B63-51303F53F28D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496174" y="3686175"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>pass : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BD6ADA8-E882-42DB-9EC3-C45F35EB1273}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{94CB7434-4316-4D9F-9FB6-A9CC06CD4FB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6962775" y="2505075"/>
+          <a:ext cx="9696450" cy="3095625"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>SignupForm</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C919AEEE-AC7B-4CC1-BC04-E647FCE503AA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{6BD6ADA8-E882-42DB-9EC3-C45F35EB1273}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7496174" y="3686175"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repass : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50E7B26F-883B-49D1-AB87-0BDC3FFF8613}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{41A49274-318D-40F4-A396-1AF9905EF51A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9725025" y="4905375"/>
+          <a:ext cx="1619251" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>kana : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A3C9BB9-D42E-4C6D-BF08-D77C710CC64F}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{50E7B26F-883B-49D1-AB87-0BDC3FFF8613}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="4914900"/>
+          <a:ext cx="2038350" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>name : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05360B5D-B457-4C7C-8B0C-2057528AE962}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2A3C9BB9-D42E-4C6D-BF08-D77C710CC64F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11534775" y="4914900"/>
+          <a:ext cx="2009776" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>email :</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -400,7 +2097,7 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t> : String</a:t>
+            <a:t> String</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
@@ -415,26 +2112,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="四角形 7">
+        <xdr:cNvPr id="11" name="四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AFDAC4A-F9D5-49D4-A6E4-A564A3A95CFD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94CB7434-4316-4D9F-9FB6-A9CC06CD4FB3}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{05360B5D-B457-4C7C-8B0C-2057528AE962}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -442,8 +2139,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8848725" y="3686175"/>
-          <a:ext cx="1362075" cy="342900"/>
+          <a:off x="13677900" y="4905375"/>
+          <a:ext cx="1600200" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -573,7 +2270,106 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>kana : String</a:t>
+            <a:t>pass :</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> String</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F378415-7B95-48B7-91EB-E24FD9057576}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{2AA2002C-C11A-42A1-80CE-1742E3856ED3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7296150" y="2124075"/>
+          <a:ext cx="5486400" cy="5934075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFEBC7"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>InterviewerSetForm</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -582,26 +2378,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>638174</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>533399</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="四角形 7">
+        <xdr:cNvPr id="3" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDFB506E-80A7-470A-BA50-6540C59FE557}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DAF20494-5E40-4CF0-99C5-E8EA647A9818}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{0F378415-7B95-48B7-91EB-E24FD9057576}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -609,8 +2405,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10353675" y="3686175"/>
-          <a:ext cx="1362075" cy="342900"/>
+          <a:off x="7496174" y="3686175"/>
+          <a:ext cx="1952625" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -750,25 +2546,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="四角形 7">
+        <xdr:cNvPr id="4" name="四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B25AC83A-CB2F-4D22-9BB4-7EDB1B5366CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{047A2AED-6B79-457F-83DE-84D62316D7CF}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{A30E5828-D3E3-4D9B-8009-C2D554F4F31D}"/>
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{DAF20494-5E40-4CF0-99C5-E8EA647A9818}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -776,8 +2572,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7210425" y="4229100"/>
-          <a:ext cx="1981200" cy="342900"/>
+          <a:off x="7524749" y="3209925"/>
+          <a:ext cx="1952625" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -907,7 +2703,1176 @@
               </a:solidFill>
               <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>requestText : String</a:t>
+            <a:t>name : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{364DCC91-7588-46AF-9A73-DFBE5B17F8B7}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{68833879-CE1D-4807-2B63-51303F53F28D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9572624" y="3200400"/>
+          <a:ext cx="1543051" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>kana : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="四角形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{818025CD-BD7C-4DE8-A0D7-073A705D3F91}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{364DCC91-7588-46AF-9A73-DFBE5B17F8B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563100" y="3695700"/>
+          <a:ext cx="1676400" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>pass : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="四角形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C75133BB-89E5-4DFE-AA5D-AAF84EEAD58A}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{818025CD-BD7C-4DE8-A0D7-073A705D3F91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9553575" y="4171950"/>
+          <a:ext cx="1676400" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>repass : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="四角形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD353B62-2FFD-407F-8162-51616758E1F4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{953096E6-020F-400C-B4A2-9DCBEC791EBE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7467600" y="4819650"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>hidName : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="四角形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC8A83C-8C90-439B-B43D-7350E71C9EAE}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{BD353B62-2FFD-407F-8162-51616758E1F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563100" y="4819650"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>hidKana : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="四角形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7130ECEB-69FC-451D-847F-B3067EA678D4}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{4DC8A83C-8C90-439B-B43D-7350E71C9EAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7458075" y="5324475"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>hidEmail : String</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="四角形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{279D0E77-7F10-4D77-BAC7-BF7273B2A719}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7130ECEB-69FC-451D-847F-B3067EA678D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9582150" y="5314950"/>
+          <a:ext cx="1952625" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="t" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="Aptos Narrow" panose="020B0004020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>hidPass : String</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1233,41 +4198,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CA4BD4F-5072-4D7B-AB3F-DD0E45729661}">
   <dimension ref="F19:I105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+    <sheetView tabSelected="1" topLeftCell="G5" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="19" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="7:8">
       <c r="G19" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20" spans="7:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="7:8">
       <c r="H20" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="8:9">
       <c r="H34" s="4"/>
       <c r="I34" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="8:9">
       <c r="H36" s="1"/>
       <c r="I36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="6:7" ht="30" x14ac:dyDescent="0.6">
+    <row r="105" spans="6:7" ht="30">
       <c r="F105" s="1"/>
       <c r="G105" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1276,4 +4241,188 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8713BF13-3E3D-4E95-961B-24EA02735F75}">
+  <dimension ref="F19:I105"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="19" spans="7:8">
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8">
+      <c r="H20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AB93424-3B49-4639-9C6A-D19ADD41BBFB}">
+  <dimension ref="F19:I105"/>
+  <sheetViews>
+    <sheetView topLeftCell="H19" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="19" spans="7:8">
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8">
+      <c r="H20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C73E277-3F2D-4B3C-AACF-5945500CA205}">
+  <dimension ref="F19:I105"/>
+  <sheetViews>
+    <sheetView topLeftCell="J7" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="19" spans="7:8">
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8">
+      <c r="H20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CD8BBDA-6E80-4A47-AD5A-F136B5A73642}">
+  <dimension ref="F19:I105"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="T24" sqref="T24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="19" spans="7:8">
+      <c r="G19" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="7:8">
+      <c r="H20" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9">
+      <c r="H34" s="4"/>
+      <c r="I34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="8:9">
+      <c r="H36" s="1"/>
+      <c r="I36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="6:7" ht="30">
+      <c r="F105" s="1"/>
+      <c r="G105" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>